--- a/Dataset/Production-Data/Cookies-Production-Data.xlsx
+++ b/Dataset/Production-Data/Cookies-Production-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anant\My Drive\DOS-LU\DOSLU-SAS-IOP\Dataset\Production-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A60814-2659-4EDC-80F7-42ECC088020F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A63557-615E-4F38-A56D-83A0299D7573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{096FBE80-FD39-44FC-A20E-EA0E9490D9C7}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:C5001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
